--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7AE513-9930-4D47-B3B1-4BD1F768B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B82548-526C-45AF-9B78-3D618A90E427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +460,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -499,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,6 +533,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,10 +852,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1048,7 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1048,7 +1065,7 @@
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
@@ -1062,7 +1079,7 @@
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
@@ -1079,7 +1096,7 @@
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B82548-526C-45AF-9B78-3D618A90E427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA3BC6-7E21-4F34-8468-B887A6D8BA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,6 +535,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,10 +855,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +931,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="12" t="s">
         <v>117</v>
       </c>
     </row>
@@ -936,12 +939,13 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -949,12 +953,13 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -980,7 +985,7 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -988,12 +993,13 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1759,5 +1765,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA3BC6-7E21-4F34-8468-B887A6D8BA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAADB45-CE55-4332-84D9-61A1123D3960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
   <si>
     <t>pacientes</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Estas imágenes deben estar en botones rectangulares.</t>
+  </si>
+  <si>
+    <t>* Gráficos - Usar la librería Highchart - Cantidad de turnos por día en gráfico de líneas</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +504,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -514,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,6 +547,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,10 +865,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E15:E17"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1186,7 @@
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1190,9 +1200,6 @@
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -1204,8 +1211,8 @@
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>19</v>
+      <c r="B36" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1218,8 +1225,8 @@
       <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
+      <c r="B37" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
@@ -1232,8 +1239,8 @@
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>21</v>
+      <c r="B38" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -1246,8 +1253,8 @@
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
+      <c r="B39" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -1257,8 +1264,8 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>23</v>
+      <c r="B40" t="s">
+        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
@@ -1272,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1285,8 +1292,8 @@
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B42" t="s">
-        <v>25</v>
+      <c r="B42" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -1299,8 +1306,8 @@
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>26</v>
+      <c r="B43" t="s">
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -1314,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>40</v>
@@ -1328,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
@@ -1337,6 +1344,9 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
@@ -1688,9 +1698,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>51</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>100</v>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAADB45-CE55-4332-84D9-61A1123D3960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C93154-BA15-4CF6-BC4C-E486F8A6F761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -865,10 +865,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1051,7 +1051,7 @@
       <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1059,6 +1059,7 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1067,7 +1068,7 @@
       <c r="B24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1084,7 +1085,7 @@
       <c r="B25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
@@ -1098,7 +1099,7 @@
       <c r="B26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
@@ -1115,7 +1116,7 @@
       <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
@@ -1189,7 +1190,7 @@
       <c r="B34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1356,7 +1357,7 @@
       <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="13" t="s">
         <v>43</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C93154-BA15-4CF6-BC4C-E486F8A6F761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB494BF-4506-49C9-AE64-86D394D6B26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -865,10 +865,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1477,7 @@
       <c r="A61" t="s">
         <v>50</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       <c r="A62" t="s">
         <v>50</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       <c r="A63" t="s">
         <v>50</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1509,6 +1509,9 @@
       <c r="B65" t="s">
         <v>77</v>
       </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
       <c r="D65" t="s">
         <v>78</v>
       </c>
@@ -1520,6 +1523,9 @@
       <c r="A66" t="s">
         <v>50</v>
       </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -1553,9 +1559,6 @@
       <c r="B72" t="s">
         <v>94</v>
       </c>
-      <c r="C72" t="s">
-        <v>75</v>
-      </c>
       <c r="D72" t="s">
         <v>92</v>
       </c>
@@ -1566,9 +1569,6 @@
       </c>
       <c r="B73" t="s">
         <v>95</v>
-      </c>
-      <c r="C73" t="s">
-        <v>76</v>
       </c>
       <c r="D73" t="s">
         <v>93</v>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB494BF-4506-49C9-AE64-86D394D6B26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BD93F4-29EF-42B6-ADA2-D6DFC4213180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -868,7 +868,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,9 +1527,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>50</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,9 +1591,6 @@
       </c>
       <c r="B75" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>109</v>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BD93F4-29EF-42B6-ADA2-D6DFC4213180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D32B75D-9647-47DD-9849-F05592E921FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -865,10 +865,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1509,7 @@
       <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D65" t="s">
@@ -1523,7 +1523,7 @@
       <c r="A66" t="s">
         <v>50</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       <c r="A67" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="12" t="s">
         <v>108</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D32B75D-9647-47DD-9849-F05592E921FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A97F1A-A813-4ED0-A6EA-04BAF1809D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -868,7 +868,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,7 @@
       <c r="A76" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       <c r="A77" t="s">
         <v>50</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       <c r="A78" t="s">
         <v>50</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="A79" t="s">
         <v>50</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       <c r="A80" t="s">
         <v>50</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="11" t="s">
         <v>83</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A97F1A-A813-4ED0-A6EA-04BAF1809D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010C7F1-9321-46FA-9202-DEBA523C9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -1643,7 +1643,7 @@
       <c r="A81" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="A82" t="s">
         <v>50</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="A83" t="s">
         <v>50</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="A84" t="s">
         <v>50</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="11" t="s">
         <v>87</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010C7F1-9321-46FA-9202-DEBA523C9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61AF7F0-DE93-43F3-9FD1-4AFB3C1E7029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -45,24 +45,15 @@
     <t>admin</t>
   </si>
   <si>
-    <t>gral</t>
-  </si>
-  <si>
     <t>sprint 1</t>
   </si>
   <si>
-    <t>acceso rapido</t>
-  </si>
-  <si>
     <t>habilitar especialistas</t>
   </si>
   <si>
     <t>cheq email habilitado</t>
   </si>
   <si>
-    <t>seccion usuarios (solo admins)</t>
-  </si>
-  <si>
     <t>alta de admins</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>* mostrar mis turnos</t>
   </si>
   <si>
-    <t>seccion mis turnos, solo pacientes :</t>
-  </si>
-  <si>
     <t>Cancelar turno</t>
   </si>
   <si>
@@ -267,12 +255,6 @@
     <t>especialista haya atendido al menos 1 vez.</t>
   </si>
   <si>
-    <t>Mi Perfil, para los Pacientes, ver hitoria clinica</t>
-  </si>
-  <si>
-    <t>Sección Usuarios, para los Administradores, ver histopria clinica</t>
-  </si>
-  <si>
     <t>● Cuatro datos fijos</t>
   </si>
   <si>
@@ -306,18 +288,12 @@
     <t>cualquier campo del turno,</t>
   </si>
   <si>
-    <t>ncluyendo la historia clínica (sean los datos fijos o los</t>
-  </si>
-  <si>
     <t>dinámicos)</t>
   </si>
   <si>
     <t>En la sección usuarios, solamente para el perfil Administrador</t>
   </si>
   <si>
-    <t>un excel con los datos de los usuarios.</t>
-  </si>
-  <si>
     <t>En Mi perfil, para los usuarios paciente, un pdf con la historia clínica</t>
   </si>
   <si>
@@ -358,17 +334,6 @@
   </si>
   <si>
     <t>directivas.</t>
-  </si>
-  <si>
-    <t>mostrar los usuarios con CARD , con un detalle de CUANDO FUERON LOS 
-ULTIMOS 3 TURNOS  con acceso a historia clinica</t>
-  </si>
-  <si>
-    <t>mostrar los usuarios con CARD y al seleccionarlo me descarga los
- datos de que turnos tomo y con quien en excel</t>
-  </si>
-  <si>
-    <t>Poder bajar Todas las atenciones que realice segun una ESPECIALIDAD</t>
   </si>
   <si>
     <t>izquierda a derecha</t>
@@ -411,13 +376,48 @@
   </si>
   <si>
     <t>* Gráficos - Usar la librería Highchart - Cantidad de turnos por día en gráfico de líneas</t>
+  </si>
+  <si>
+    <t>Gral.</t>
+  </si>
+  <si>
+    <t>sección usuarios (solo admins)</t>
+  </si>
+  <si>
+    <t>acceso rápido</t>
+  </si>
+  <si>
+    <t>sección mis turnos, solo pacientes :</t>
+  </si>
+  <si>
+    <t>incluyendo la historia clínica (sean los datos fijos o los</t>
+  </si>
+  <si>
+    <t>Mi Perfil, para los Pacientes, ver historia clínica</t>
+  </si>
+  <si>
+    <t>Sección Usuarios, para los Administradores, ver historia clínica</t>
+  </si>
+  <si>
+    <t>mostrar los usuarios con CARD , con un detalle de CUANDO FUERON LOS 
+ULTIMOS 3 TURNOS  con acceso a historia clínica</t>
+  </si>
+  <si>
+    <t>un Excel con los datos de los usuarios.</t>
+  </si>
+  <si>
+    <t>Poder bajar Todas las atenciones que realice según una ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>mostrar los usuarios con CARD y al seleccionarlo me descarga los
+ datos de que turnos tomo y con quien en Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +478,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -523,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +556,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,10 +874,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81:C84"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,136 +900,136 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,438 +1041,441 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="C27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
+        <v>101</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
+        <v>102</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>64</v>
+        <v>7</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>67</v>
+        <v>7</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,200 +1487,200 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,100 +1692,100 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61AF7F0-DE93-43F3-9FD1-4AFB3C1E7029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F562DC-077A-4668-8194-B4B0F347B72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -874,10 +874,10 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,10 +907,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F562DC-077A-4668-8194-B4B0F347B72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6B038-AB65-43ED-99E2-394AA116906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>pacientes</t>
   </si>
@@ -411,6 +411,75 @@
   <si>
     <t>mostrar los usuarios con CARD y al seleccionarlo me descarga los
  datos de que turnos tomo y con quien en Excel</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Nuevos datos dinámicos</t>
+  </si>
+  <si>
+    <t>En la historia clínica necesitamos agregar 3 nuevos datos dinámicos que el especialista se encargará</t>
+  </si>
+  <si>
+    <t>de llenar. Estos 3 datos tienen que ser con tres tipos de controles específicos:</t>
+  </si>
+  <si>
+    <t>● Un control de rango entre 0 y 100</t>
+  </si>
+  <si>
+    <t>● Un cuadro de texto numérico</t>
+  </si>
+  <si>
+    <t>● Switch con “Si” o “No”</t>
+  </si>
+  <si>
+    <t>Generar una directiva que sea el captcha propio</t>
+  </si>
+  <si>
+    <t>Utilizar el capcha creado por ustedes y que se comunique por Input o outPut de ser necesario con el</t>
+  </si>
+  <si>
+    <t>que componente que lo contenga</t>
+  </si>
+  <si>
+    <t>Utilizar este captcha en toda operación de alta que realice el paciente y el profesional. Debemos</t>
+  </si>
+  <si>
+    <t>contar con la opción de deshabilitar el captcha.</t>
+  </si>
+  <si>
+    <t>Animaciones de transición</t>
+  </si>
+  <si>
+    <t>Se debe aplicar al menos 6 (seis como mínimo) animación es de transición entre componentes al</t>
+  </si>
+  <si>
+    <t>navegar la aplicación.</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>Sprint 13</t>
   </si>
 </sst>
 </file>
@@ -533,30 +602,48 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,182 +958,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5A9F2E-CCD3-459C-9D8F-4F7210648E00}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1054,26 +1142,26 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1085,123 +1173,123 @@
       <c r="D24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -1209,63 +1297,63 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -1273,137 +1361,137 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -1411,248 +1499,248 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="11"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A64" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="A66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="13" t="s">
+      <c r="A76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="A77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="A78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="A79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="A80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -1660,132 +1748,226 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="A82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="A83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="A84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6B038-AB65-43ED-99E2-394AA116906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584399BA-215E-4000-A409-1C1BECD63CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -961,10 +961,10 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1612,7 @@
       <c r="C65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E65" s="1" t="s">

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584399BA-215E-4000-A409-1C1BECD63CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC54F81-F81E-4802-B08D-ACD4CF177AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="139">
   <si>
     <t>pacientes</t>
   </si>
@@ -456,30 +456,6 @@
   </si>
   <si>
     <t>navegar la aplicación.</t>
-  </si>
-  <si>
-    <t>Sprint 6</t>
-  </si>
-  <si>
-    <t>Sprint 7</t>
-  </si>
-  <si>
-    <t>Sprint 8</t>
-  </si>
-  <si>
-    <t>Sprint 9</t>
-  </si>
-  <si>
-    <t>Sprint 10</t>
-  </si>
-  <si>
-    <t>Sprint 11</t>
-  </si>
-  <si>
-    <t>Sprint 12</t>
-  </si>
-  <si>
-    <t>Sprint 13</t>
   </si>
 </sst>
 </file>
@@ -961,10 +937,10 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1638,7 @@
       <c r="B72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1673,7 +1649,7 @@
       <c r="B73" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1806,7 +1782,7 @@
       <c r="C89" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1890,7 +1866,7 @@
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>125</v>
@@ -1901,7 +1877,7 @@
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>126</v>
@@ -1912,7 +1888,7 @@
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>127</v>
@@ -1923,7 +1899,7 @@
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>128</v>
@@ -1934,7 +1910,7 @@
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>129</v>
@@ -1945,7 +1921,7 @@
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>130</v>
@@ -1956,7 +1932,7 @@
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>137</v>
@@ -1964,7 +1940,7 @@
     </row>
     <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>138</v>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC54F81-F81E-4802-B08D-ACD4CF177AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFD81F-2E6F-4D9B-BA19-7C563579BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -937,10 +937,10 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="E101" sqref="E101:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1871,7 @@
       <c r="C101" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="C102" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="C103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       <c r="C104" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       <c r="C105" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="10" t="s">
         <v>135</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFD81F-2E6F-4D9B-BA19-7C563579BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D285924-5930-4962-AE0F-AD555896FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,14 +519,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,9 +582,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -619,6 +608,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,10 +929,10 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101:E105"/>
+      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +990,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1006,7 +998,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1014,7 +1006,7 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1028,7 +1020,7 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1042,7 +1034,7 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1060,7 +1052,7 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1068,7 +1060,7 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1082,7 +1074,7 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1097,23 +1089,23 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1121,7 +1113,7 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1140,16 +1132,16 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1213,10 +1205,10 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1224,10 +1216,10 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1235,10 +1227,10 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1246,10 +1238,10 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1268,7 +1260,7 @@
       <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1290,7 +1282,7 @@
       <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1332,7 +1324,7 @@
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1399,7 +1391,7 @@
       <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1440,7 +1432,7 @@
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1459,7 +1451,7 @@
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1470,7 +1462,7 @@
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1478,7 +1470,7 @@
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1497,7 +1489,7 @@
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="4"/>
@@ -1543,11 +1535,11 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -1607,7 +1599,7 @@
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1665,13 +1657,13 @@
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1719,7 +1711,7 @@
       <c r="A81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1748,11 +1740,11 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -1779,7 +1771,7 @@
       <c r="A89" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -1853,11 +1845,11 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -1871,7 +1863,7 @@
       <c r="C101" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1882,7 +1874,7 @@
       <c r="C102" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="9" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1893,7 +1885,7 @@
       <c r="C103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1904,7 +1896,7 @@
       <c r="C104" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1915,7 +1907,7 @@
       <c r="C105" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="9" t="s">
         <v>135</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D285924-5930-4962-AE0F-AD555896FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3028DF-DC50-4598-A140-08A2B2D00E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -608,9 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,10 +926,10 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +971,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -990,7 +987,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1374,7 +1371,7 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -1388,7 +1385,7 @@
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -1402,7 +1399,7 @@
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1413,7 +1410,7 @@
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="4" t="s">

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3028DF-DC50-4598-A140-08A2B2D00E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743EBD6-90D9-42D2-9C84-E41D3FFF9395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,8 +523,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +576,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -565,10 +596,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -600,17 +633,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -923,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5A9F2E-CCD3-459C-9D8F-4F7210648E00}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40:B41"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +1028,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1169,7 +1210,7 @@
       <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1186,7 +1227,7 @@
       <c r="D27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1194,7 +1235,7 @@
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1202,10 +1243,10 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1213,10 +1254,10 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1224,10 +1265,10 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1235,10 +1276,10 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="15" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1349,7 +1390,7 @@
       <c r="C41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1363,7 +1404,7 @@
       <c r="C42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1377,7 +1418,7 @@
       <c r="C43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1391,7 +1432,7 @@
       <c r="C44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1429,7 +1470,7 @@
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1448,7 +1489,7 @@
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1467,7 +1508,7 @@
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1486,7 +1527,7 @@
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="4"/>
@@ -1571,16 +1612,13 @@
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1604,28 +1642,37 @@
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B70" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>85</v>
@@ -1635,9 +1682,6 @@
       <c r="A73" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D73" s="4" t="s">
         <v>121</v>
       </c>
@@ -1646,22 +1690,16 @@
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,7 +1806,7 @@
       <c r="A89" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -1779,7 +1817,7 @@
       <c r="A90" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1787,7 +1825,7 @@
       <c r="A91" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1795,7 +1833,7 @@
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1803,7 +1841,7 @@
       <c r="A93" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1811,12 +1849,13 @@
       <c r="A94" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1829,7 +1868,7 @@
       <c r="A97" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1837,7 +1876,7 @@
       <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1923,7 +1962,7 @@
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1931,8 +1970,13 @@
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="13" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743EBD6-90D9-42D2-9C84-E41D3FFF9395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7843788-6DCC-45AB-96F0-B02C2994135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7843788-6DCC-45AB-96F0-B02C2994135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C44BA-62B2-43C1-8AFB-199FB96512C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -601,7 +601,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -646,6 +646,9 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
@@ -970,7 +973,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1645,7 @@
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="16" t="s">
         <v>118</v>
       </c>
     </row>

--- a/src/assets/files/listado_de_requerimientos.xlsx
+++ b/src/assets/files/listado_de_requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\lavo4\2023-02\tp2_clinicaOnLineAngular16\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C44BA-62B2-43C1-8AFB-199FB96512C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E32E737-DDE1-4E46-B575-3906DA202EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0124BE21-968A-4C4A-9B05-FAFEF8365FA3}"/>
   </bookViews>
@@ -970,10 +970,10 @@
   <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69:B71"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1653,7 @@
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1800,17 +1800,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>92</v>
